--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pspn-Gfra4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Pspn</t>
   </si>
   <si>
     <t>Gfra4</t>
   </si>
   <si>
-    <t>sCs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,61 +525,991 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.2111796666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.633539</v>
+      </c>
+      <c r="I2">
+        <v>0.05874445468172132</v>
+      </c>
+      <c r="J2">
+        <v>0.06422516575357991</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.9270143333333333</v>
+      </c>
+      <c r="N2">
+        <v>2.781043</v>
+      </c>
+      <c r="O2">
+        <v>0.5638049127306944</v>
+      </c>
+      <c r="P2">
+        <v>0.6461387013672557</v>
+      </c>
+      <c r="Q2">
+        <v>0.1957665779085555</v>
+      </c>
+      <c r="R2">
+        <v>1.761899201177</v>
+      </c>
+      <c r="S2">
+        <v>0.03312041214524012</v>
+      </c>
+      <c r="T2">
+        <v>0.04149836519511486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G3">
+        <v>0.2111796666666667</v>
+      </c>
+      <c r="H3">
+        <v>0.633539</v>
+      </c>
+      <c r="I3">
+        <v>0.05874445468172132</v>
+      </c>
+      <c r="J3">
+        <v>0.06422516575357991</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.035149</v>
+      </c>
+      <c r="N3">
+        <v>0.105447</v>
+      </c>
+      <c r="O3">
+        <v>0.021377424452881</v>
+      </c>
+      <c r="P3">
+        <v>0.02449922120696192</v>
+      </c>
+      <c r="Q3">
+        <v>0.007422754103666667</v>
+      </c>
+      <c r="R3">
+        <v>0.066804786933</v>
+      </c>
+      <c r="S3">
+        <v>0.001255805141984189</v>
+      </c>
+      <c r="T3">
+        <v>0.00157346654285075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.2111796666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.633539</v>
+      </c>
+      <c r="I4">
+        <v>0.05874445468172132</v>
+      </c>
+      <c r="J4">
+        <v>0.06422516575357991</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.05351033333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.160531</v>
+      </c>
+      <c r="O4">
+        <v>0.03254468429491062</v>
+      </c>
+      <c r="P4">
+        <v>0.03729726288632967</v>
+      </c>
+      <c r="Q4">
+        <v>0.01130029435655555</v>
+      </c>
+      <c r="R4">
+        <v>0.101702649209</v>
+      </c>
+      <c r="S4">
+        <v>0.001911819731693305</v>
+      </c>
+      <c r="T4">
+        <v>0.002395422891029367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.87964973946602</v>
-      </c>
-      <c r="H2">
-        <v>1.87964973946602</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.491792189700081</v>
-      </c>
-      <c r="N2">
-        <v>0.491792189700081</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.9243970612411807</v>
-      </c>
-      <c r="R2">
-        <v>0.9243970612411807</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.2111796666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.633539</v>
+      </c>
+      <c r="I5">
+        <v>0.05874445468172132</v>
+      </c>
+      <c r="J5">
+        <v>0.06422516575357991</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.6285375000000001</v>
+      </c>
+      <c r="N5">
+        <v>1.257075</v>
+      </c>
+      <c r="O5">
+        <v>0.382272978521514</v>
+      </c>
+      <c r="P5">
+        <v>0.2920648145394527</v>
+      </c>
+      <c r="Q5">
+        <v>0.1327343397375</v>
+      </c>
+      <c r="R5">
+        <v>0.796406038425</v>
+      </c>
+      <c r="S5">
+        <v>0.02245641766280371</v>
+      </c>
+      <c r="T5">
+        <v>0.01875791112458492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.239930333333333</v>
+      </c>
+      <c r="H6">
+        <v>6.719791</v>
+      </c>
+      <c r="I6">
+        <v>0.6230878570540074</v>
+      </c>
+      <c r="J6">
+        <v>0.6812203996982261</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.9270143333333333</v>
+      </c>
+      <c r="N6">
+        <v>2.781043</v>
+      </c>
+      <c r="O6">
+        <v>0.5638049127306944</v>
+      </c>
+      <c r="P6">
+        <v>0.6461387013672557</v>
+      </c>
+      <c r="Q6">
+        <v>2.076447524668111</v>
+      </c>
+      <c r="R6">
+        <v>18.688027722013</v>
+      </c>
+      <c r="S6">
+        <v>0.3512999948698901</v>
+      </c>
+      <c r="T6">
+        <v>0.4401628644058947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.239930333333333</v>
+      </c>
+      <c r="H7">
+        <v>6.719791</v>
+      </c>
+      <c r="I7">
+        <v>0.6230878570540074</v>
+      </c>
+      <c r="J7">
+        <v>0.6812203996982261</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.035149</v>
+      </c>
+      <c r="N7">
+        <v>0.105447</v>
+      </c>
+      <c r="O7">
+        <v>0.021377424452881</v>
+      </c>
+      <c r="P7">
+        <v>0.02449922120696192</v>
+      </c>
+      <c r="Q7">
+        <v>0.07873131128633333</v>
+      </c>
+      <c r="R7">
+        <v>0.708581801577</v>
+      </c>
+      <c r="S7">
+        <v>0.01332001359167956</v>
+      </c>
+      <c r="T7">
+        <v>0.01668936926290186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.239930333333333</v>
+      </c>
+      <c r="H8">
+        <v>6.719791</v>
+      </c>
+      <c r="I8">
+        <v>0.6230878570540074</v>
+      </c>
+      <c r="J8">
+        <v>0.6812203996982261</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05351033333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.160531</v>
+      </c>
+      <c r="O8">
+        <v>0.03254468429491062</v>
+      </c>
+      <c r="P8">
+        <v>0.03729726288632967</v>
+      </c>
+      <c r="Q8">
+        <v>0.1198594187801111</v>
+      </c>
+      <c r="R8">
+        <v>1.078734769021</v>
+      </c>
+      <c r="S8">
+        <v>0.02027819759581507</v>
+      </c>
+      <c r="T8">
+        <v>0.02540765633107531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.239930333333333</v>
+      </c>
+      <c r="H9">
+        <v>6.719791</v>
+      </c>
+      <c r="I9">
+        <v>0.6230878570540074</v>
+      </c>
+      <c r="J9">
+        <v>0.6812203996982261</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6285375000000001</v>
+      </c>
+      <c r="N9">
+        <v>1.257075</v>
+      </c>
+      <c r="O9">
+        <v>0.382272978521514</v>
+      </c>
+      <c r="P9">
+        <v>0.2920648145394527</v>
+      </c>
+      <c r="Q9">
+        <v>1.4078802118875</v>
+      </c>
+      <c r="R9">
+        <v>8.447281271325</v>
+      </c>
+      <c r="S9">
+        <v>0.2381896509966227</v>
+      </c>
+      <c r="T9">
+        <v>0.1989605096983542</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.2234583333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.6703750000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.06216004666999022</v>
+      </c>
+      <c r="J10">
+        <v>0.06795942395346796</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.9270143333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.781043</v>
+      </c>
+      <c r="O10">
+        <v>0.5638049127306944</v>
+      </c>
+      <c r="P10">
+        <v>0.6461387013672557</v>
+      </c>
+      <c r="Q10">
+        <v>0.2071490779027778</v>
+      </c>
+      <c r="R10">
+        <v>1.864341701125</v>
+      </c>
+      <c r="S10">
+        <v>0.03504613968810973</v>
+      </c>
+      <c r="T10">
+        <v>0.04391121393896056</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.2234583333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.6703750000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.06216004666999022</v>
+      </c>
+      <c r="J11">
+        <v>0.06795942395346796</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.035149</v>
+      </c>
+      <c r="N11">
+        <v>0.105447</v>
+      </c>
+      <c r="O11">
+        <v>0.021377424452881</v>
+      </c>
+      <c r="P11">
+        <v>0.02449922120696192</v>
+      </c>
+      <c r="Q11">
+        <v>0.007854336958333333</v>
+      </c>
+      <c r="R11">
+        <v>0.07068903262500001</v>
+      </c>
+      <c r="S11">
+        <v>0.001328821701675273</v>
+      </c>
+      <c r="T11">
+        <v>0.001664952960533718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.2234583333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.6703750000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.06216004666999022</v>
+      </c>
+      <c r="J12">
+        <v>0.06795942395346796</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05351033333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.160531</v>
+      </c>
+      <c r="O12">
+        <v>0.03254468429491062</v>
+      </c>
+      <c r="P12">
+        <v>0.03729726288632967</v>
+      </c>
+      <c r="Q12">
+        <v>0.01195732990277778</v>
+      </c>
+      <c r="R12">
+        <v>0.107615969125</v>
+      </c>
+      <c r="S12">
+        <v>0.002022979094631742</v>
+      </c>
+      <c r="T12">
+        <v>0.002534700500796024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.2234583333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.6703750000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.06216004666999022</v>
+      </c>
+      <c r="J13">
+        <v>0.06795942395346796</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6285375000000001</v>
+      </c>
+      <c r="N13">
+        <v>1.257075</v>
+      </c>
+      <c r="O13">
+        <v>0.382272978521514</v>
+      </c>
+      <c r="P13">
+        <v>0.2920648145394527</v>
+      </c>
+      <c r="Q13">
+        <v>0.1404519421875</v>
+      </c>
+      <c r="R13">
+        <v>0.8427116531250002</v>
+      </c>
+      <c r="S13">
+        <v>0.02376210618557348</v>
+      </c>
+      <c r="T13">
+        <v>0.01984855655317766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.9203185</v>
+      </c>
+      <c r="H14">
+        <v>1.840637</v>
+      </c>
+      <c r="I14">
+        <v>0.2560076415942811</v>
+      </c>
+      <c r="J14">
+        <v>0.1865950105947259</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.9270143333333333</v>
+      </c>
+      <c r="N14">
+        <v>2.781043</v>
+      </c>
+      <c r="O14">
+        <v>0.5638049127306944</v>
+      </c>
+      <c r="P14">
+        <v>0.6461387013672557</v>
+      </c>
+      <c r="Q14">
+        <v>0.8531484407318333</v>
+      </c>
+      <c r="R14">
+        <v>5.118890644391</v>
+      </c>
+      <c r="S14">
+        <v>0.1443383660274545</v>
+      </c>
+      <c r="T14">
+        <v>0.1205662578272855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.9203185</v>
+      </c>
+      <c r="H15">
+        <v>1.840637</v>
+      </c>
+      <c r="I15">
+        <v>0.2560076415942811</v>
+      </c>
+      <c r="J15">
+        <v>0.1865950105947259</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.035149</v>
+      </c>
+      <c r="N15">
+        <v>0.105447</v>
+      </c>
+      <c r="O15">
+        <v>0.021377424452881</v>
+      </c>
+      <c r="P15">
+        <v>0.02449922120696192</v>
+      </c>
+      <c r="Q15">
+        <v>0.0323482749565</v>
+      </c>
+      <c r="R15">
+        <v>0.194089649739</v>
+      </c>
+      <c r="S15">
+        <v>0.00547278401754198</v>
+      </c>
+      <c r="T15">
+        <v>0.004571432440675595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.9203185</v>
+      </c>
+      <c r="H16">
+        <v>1.840637</v>
+      </c>
+      <c r="I16">
+        <v>0.2560076415942811</v>
+      </c>
+      <c r="J16">
+        <v>0.1865950105947259</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.05351033333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.160531</v>
+      </c>
+      <c r="O16">
+        <v>0.03254468429491062</v>
+      </c>
+      <c r="P16">
+        <v>0.03729726288632967</v>
+      </c>
+      <c r="Q16">
+        <v>0.04924654970783333</v>
+      </c>
+      <c r="R16">
+        <v>0.295479298247</v>
+      </c>
+      <c r="S16">
+        <v>0.008331687872770506</v>
+      </c>
+      <c r="T16">
+        <v>0.006959483163428964</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.9203185</v>
+      </c>
+      <c r="H17">
+        <v>1.840637</v>
+      </c>
+      <c r="I17">
+        <v>0.2560076415942811</v>
+      </c>
+      <c r="J17">
+        <v>0.1865950105947259</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6285375000000001</v>
+      </c>
+      <c r="N17">
+        <v>1.257075</v>
+      </c>
+      <c r="O17">
+        <v>0.382272978521514</v>
+      </c>
+      <c r="P17">
+        <v>0.2920648145394527</v>
+      </c>
+      <c r="Q17">
+        <v>0.5784546891937501</v>
+      </c>
+      <c r="R17">
+        <v>2.313818756775</v>
+      </c>
+      <c r="S17">
+        <v>0.09786480367651405</v>
+      </c>
+      <c r="T17">
+        <v>0.05449783716333584</v>
       </c>
     </row>
   </sheetData>
